--- a/proj1/partc_1.xlsx
+++ b/proj1/partc_1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mythilimulani/Documents/Sem3/SC2001/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mythilimulani/Projects/SC2001-Projects/proj1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB8205E-136C-3649-AEA0-E8189B64BAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B50211-C07F-584C-A720-75E65688E3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9500" yWindow="760" windowWidth="22580" windowHeight="18880" xr2:uid="{13DBA10F-C121-4E41-8C22-C590D8A1F1D7}"/>
+    <workbookView xWindow="7660" yWindow="760" windowWidth="22580" windowHeight="18880" xr2:uid="{13DBA10F-C121-4E41-8C22-C590D8A1F1D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Array Size</t>
   </si>
   <si>
     <t>Key Comparisons</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>Best Case</t>
@@ -120,13 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -444,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26BD6D8-B607-6C49-82D3-03F26C49716B}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,11 +460,9 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -477,7 +471,7 @@
       <c r="B2">
         <v>20309</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>2988</v>
       </c>
     </row>
@@ -488,7 +482,7 @@
       <c r="B3" s="2">
         <v>271686</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>44896</v>
       </c>
     </row>
@@ -499,7 +493,7 @@
       <c r="B4">
         <v>1704681</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>274656</v>
       </c>
     </row>
@@ -534,7 +528,7 @@
       <c r="B7">
         <v>9291420</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>2096976</v>
       </c>
     </row>
@@ -546,7 +540,7 @@
       <c r="B8">
         <v>14835018</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>2797248</v>
       </c>
     </row>
@@ -558,7 +552,7 @@
       <c r="B9">
         <v>14463980</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>3742544</v>
       </c>
     </row>
@@ -570,7 +564,7 @@
       <c r="B10">
         <v>19179429</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>4493952</v>
       </c>
     </row>
@@ -582,7 +576,7 @@
       <c r="B11">
         <v>24517354</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>5244400</v>
       </c>
     </row>
@@ -594,7 +588,7 @@
       <c r="B12">
         <v>30476894</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>5994496</v>
       </c>
     </row>
@@ -606,7 +600,7 @@
       <c r="B13">
         <v>25525527</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>7185936</v>
       </c>
     </row>
@@ -618,7 +612,7 @@
       <c r="B14">
         <v>29899842</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>7985088</v>
       </c>
     </row>
